--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>Email</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Yonan@NTU.EDU.SG</t>
+  </si>
+  <si>
+    <t>princess</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F6584F-AC7C-40C1-A4C5-7A6CFD52D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BF67A-A292-40BC-9C93-BF6F0AC7BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2205" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
   <si>
     <t>Email</t>
   </si>
@@ -223,15 +223,9 @@
     <t>AA341@e.ntu.edu.sg</t>
   </si>
   <si>
-    <t>santoshiscool</t>
-  </si>
-  <si>
     <t>UserID</t>
   </si>
   <si>
-    <t>helloworld</t>
-  </si>
-  <si>
     <t>vas</t>
   </si>
   <si>
@@ -247,7 +241,7 @@
     <t>Yonan@NTU.EDU.SG</t>
   </si>
   <si>
-    <t>0</t>
+    <t>princess</t>
   </si>
 </sst>
 </file>
@@ -603,7 +597,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +612,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>3</v>
@@ -961,7 +955,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>
@@ -996,18 +990,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>72</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>9</v>
@@ -1016,18 +1010,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>9</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/816d456de2010391/Desktop/sc2002/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BF67A-A292-40BC-9C93-BF6F0AC7BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A06BF67A-A292-40BC-9C93-BF6F0AC7BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F2AD43-F222-47AD-B4AE-C2095BE78771}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2205" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,436 +596,436 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.85546875"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s" s="0">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="0">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s" s="0">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s" s="0">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s" s="0">
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="0">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/816d456de2010391/Desktop/sc2002/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A06BF67A-A292-40BC-9C93-BF6F0AC7BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F2AD43-F222-47AD-B4AE-C2095BE78771}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A06BF67A-A292-40BC-9C93-BF6F0AC7BC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0781B30D-33C9-4DA6-9FA9-21FF0D7E963D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>princess</t>
+  </si>
+  <si>
+    <t>paasword</t>
   </si>
 </sst>
 </file>
@@ -294,6 +297,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,7 +603,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -974,7 +981,7 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -1014,7 +1021,7 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>Email</t>
   </si>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>princess</t>
+  </si>
+  <si>
+    <t>paaasword</t>
   </si>
 </sst>
 </file>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2112142F-457E-40B6-B8CF-6A8D3B0D5428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447D8AF-B7A3-4649-9C12-CDA71BCBBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,6 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,436 +597,436 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="3.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>48</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1447D8AF-B7A3-4649-9C12-CDA71BCBBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F46B5-3550-4AAC-9FE0-7AD55ADDB332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,15 +214,9 @@
     <t>SANTO@NTU.EDU.SG</t>
   </si>
   <si>
-    <t>AA341</t>
-  </si>
-  <si>
     <t>AARON</t>
   </si>
   <si>
-    <t>AA341@e.ntu.edu.sg</t>
-  </si>
-  <si>
     <t>UserID</t>
   </si>
   <si>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>princess</t>
+  </si>
+  <si>
+    <t>aaron@e.ntu.edu.sg</t>
+  </si>
+  <si>
+    <t>aaron</t>
   </si>
 </sst>
 </file>
@@ -249,10 +249,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +283,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -597,7 +608,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>3</v>
@@ -955,7 +966,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>
@@ -972,16 +983,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>66</v>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E19" t="s" s="0">
         <v>9</v>
@@ -992,16 +1003,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>68</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>70</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>9</v>
@@ -1012,16 +1023,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s" s="0">
         <v>9</v>
@@ -1031,6 +1042,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{B4F6F2BC-63FA-4E38-BD89-903C3C7A168E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F46B5-3550-4AAC-9FE0-7AD55ADDB332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D93167-B2C5-4933-88A6-FF81F907B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>Email</t>
   </si>
@@ -608,7 +608,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
         <v>66</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>67</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>aaron</t>
+  </si>
+  <si>
+    <t>orion</t>
   </si>
 </sst>
 </file>
@@ -986,7 +989,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>64</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Email</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>orion</t>
+  </si>
+  <si>
+    <t>paasword</t>
+  </si>
+  <si>
+    <t>princesss</t>
   </si>
 </sst>
 </file>
@@ -649,7 +655,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>7</v>
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>12</v>
@@ -789,7 +795,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>33</v>
@@ -849,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>42</v>
@@ -949,7 +955,7 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>59</v>
@@ -969,7 +975,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>
@@ -1029,7 +1035,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>69</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D93167-B2C5-4933-88A6-FF81F907B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02283BBC-F759-40BF-AA95-26F00E8C5368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>aaron</t>
+  </si>
+  <si>
+    <t>aaron123</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +989,7 @@
         <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>64</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>Email</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>princesss</t>
+  </si>
+  <si>
+    <t>helloworld</t>
   </si>
 </sst>
 </file>
@@ -815,7 +818,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>36</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D93167-B2C5-4933-88A6-FF81F907B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F551B6-4E07-4974-8596-2D0F83942064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="1455" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>Email</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>paasword</t>
-  </si>
-  <si>
-    <t>princesss</t>
   </si>
   <si>
     <t>helloworld</t>
@@ -620,7 +617,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>36</v>
@@ -978,7 +975,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>Email</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>helloworld</t>
+  </si>
+  <si>
+    <t>passwordcam</t>
+  </si>
+  <si>
+    <t>Princess</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>
@@ -1038,7 +1044,7 @@
         <v>69</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>69</v>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D93167-B2C5-4933-88A6-FF81F907B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6149AAC-46DA-4CA5-ABFF-5A168D3B1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14085" yWindow="1455" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>Email</t>
   </si>
@@ -250,23 +250,16 @@
     <t>paasword</t>
   </si>
   <si>
-    <t>princesss</t>
-  </si>
-  <si>
     <t>helloworld</t>
   </si>
   <si>
     <t>passwordcam</t>
-  </si>
-  <si>
-    <t>Princess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,436 +619,436 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="3.85546875"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s" s="0">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="0">
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="0">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s" s="0">
+      <c r="F13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="D14" t="s" s="0">
+      <c r="D14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s" s="0">
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>52</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="0">
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s" s="0">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" t="s" s="0">
+      <c r="F16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s" s="0">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s" s="0">
+      <c r="F18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s" s="0">
+      <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="C20" t="s">
         <v>67</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s" s="0">
+      <c r="F20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="D21" t="s">
         <v>70</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" t="s" s="0">
+      <c r="F21" t="s">
         <v>48</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6149AAC-46DA-4CA5-ABFF-5A168D3B1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F7E39-89E0-4E4B-A34B-AA69ACCAD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="1455" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12735" yWindow="1575" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Email</t>
   </si>
@@ -254,12 +254,16 @@
   </si>
   <si>
     <t>passwordcam</t>
+  </si>
+  <si>
+    <t>randomPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,436 +623,436 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="3.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="0">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="C16" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="0">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" t="s" s="0">
         <v>48</v>
       </c>
     </row>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\OneDrive - Nanyang Technological University\Y2S1\SC2002\ProjectEcplise\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F7E39-89E0-4E4B-A34B-AA69ACCAD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACCE84-34FD-49EE-93A7-0ACAD6ACEB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12735" yWindow="1575" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1185" windowWidth="14355" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>Email</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>passwordcam</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
   <si>
     <t>randomPassword</t>
@@ -623,7 +626,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>39</v>
@@ -981,7 +984,7 @@
         <v>61</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>62</v>
